--- a/src/api/data/集团历史.xlsx
+++ b/src/api/data/集团历史.xlsx
@@ -1,27 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\hongsheng3\src\api\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="中文" sheetId="1" r:id="rId1"/>
-    <sheet name="繁体" sheetId="2" r:id="rId2"/>
-    <sheet name="英文" sheetId="3" r:id="rId3"/>
+    <sheet name="导出摘要" sheetId="1" r:id="rId4"/>
+    <sheet name="中文" sheetId="2" r:id="rId5"/>
+    <sheet name="繁体 - 表格 1" sheetId="3" r:id="rId6"/>
+    <sheet name="繁体 - 表格 1-1" sheetId="4" r:id="rId7"/>
+    <sheet name="英文 - 表格 1" sheetId="5" r:id="rId8"/>
+    <sheet name="英文 - 表格 1-1" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+  <si>
+    <t>此文稿由 Numbers 导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在分开的工作表中。请注意其中的公式计算可能与 Excel 不尽相同。</t>
+  </si>
+  <si>
+    <t>Numbers 工作表名称</t>
+  </si>
+  <si>
+    <t>数字表格名称</t>
+  </si>
+  <si>
+    <t>Excel 工作表名称</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>表格 1</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
   <si>
     <t>content</t>
   </si>
@@ -36,42 +53,73 @@
   </si>
   <si>
     <t>1984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黄国忠和袁炯辉先生在香港成立鸿昇集团。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>繁体</t>
+  </si>
+  <si>
+    <t>繁体 - 表格 1</t>
+  </si>
+  <si>
+    <t>表格 1-1</t>
+  </si>
+  <si>
+    <t>繁体 - 表格 1-1</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>英文 - 表格 1</t>
+  </si>
+  <si>
+    <t>英文 - 表格 1-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,8 +132,26 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -95,161 +161,239 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="015e88b1"/>
+      <rgbColor rgb="01eef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -375,7 +519,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -384,7 +528,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -393,7 +537,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -467,7 +611,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -475,7 +619,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -494,7 +638,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -524,7 +668,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -550,7 +694,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -576,7 +720,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -602,7 +746,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -628,7 +772,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -654,7 +798,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -680,7 +824,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -706,7 +850,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -732,7 +876,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -745,15 +889,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -768,7 +906,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -776,7 +914,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -795,7 +933,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -821,7 +959,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -847,7 +985,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -873,7 +1011,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -899,7 +1037,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -925,7 +1063,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -951,7 +1089,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -977,7 +1115,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1003,7 +1141,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1029,7 +1167,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,15 +1180,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1064,7 +1196,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1083,7 +1215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1113,7 +1245,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1139,7 +1271,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1165,7 +1297,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1191,7 +1323,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1217,7 +1349,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1243,7 +1375,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1269,7 +1401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1295,7 +1427,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1321,7 +1453,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,228 +1466,308 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:IV21"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="4" width="33.6016" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="3" ht="50" customHeight="1">
+      <c r="B3" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C7" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D7" t="s" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="198.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="9">
+      <c r="B9" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="D10" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12">
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="C12" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="C13" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15">
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="C15" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="C16" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'中文'!R1C1" tooltip="" display="中文"/>
+    <hyperlink ref="D12" location="'繁体 - 表格 1'!R1C1" tooltip="" display="繁体 - 表格 1"/>
+    <hyperlink ref="D13" location="'繁体 - 表格 1-1'!R1C1" tooltip="" display="繁体 - 表格 1-1"/>
+    <hyperlink ref="D15" location="'英文 - 表格 1'!R1C1" tooltip="" display="英文 - 表格 1"/>
+    <hyperlink ref="D16" location="'英文 - 表格 1-1'!R1C1" tooltip="" display="英文 - 表格 1-1"/>
+  </hyperlinks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="10" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="6" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="6" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetData>
+    <row r="1" ht="14.55" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="198.6" customHeight="1">
+      <c r="A2" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="14.4" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" ht="14.4" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" ht="14.4" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" ht="14.4" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" ht="14.4" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" ht="12" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" ht="12" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" ht="12" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" ht="12" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" ht="12" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" ht="12" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" ht="12" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" ht="12" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" ht="12" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" ht="12" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" ht="12" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+  </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1563,22 +1775,573 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="10" customWidth="1"/>
+    <col min="1" max="1" width="10" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10" style="11" customWidth="1"/>
+    <col min="5" max="5" width="10" style="11" customWidth="1"/>
+    <col min="6" max="256" width="10" style="11" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+    </row>
+  </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="21" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="21" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="21" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.55" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="198.6" customHeight="1">
+      <c r="A2" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="14.4" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" ht="14.4" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" ht="14.4" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" ht="14.4" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" ht="14.4" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" ht="12" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" ht="12" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" ht="12" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" ht="12" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" ht="12" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" ht="12" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" ht="12" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" ht="12" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" ht="12" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" ht="12" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" ht="12" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="10" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10" style="22" customWidth="1"/>
+    <col min="3" max="3" width="10" style="22" customWidth="1"/>
+    <col min="4" max="4" width="10" style="22" customWidth="1"/>
+    <col min="5" max="5" width="10" style="22" customWidth="1"/>
+    <col min="6" max="256" width="10" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="16.3516" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="23" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="23" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="23" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.55" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="198.6" customHeight="1">
+      <c r="A2" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="14.4" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" ht="14.4" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" ht="14.4" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" ht="14.4" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" ht="14.4" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" ht="12" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" ht="12" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" ht="12" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" ht="12" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" ht="12" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" ht="12" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" ht="12" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" ht="12" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" ht="12" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" ht="12" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" ht="12" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/api/data/集团历史.xlsx
+++ b/src/api/data/集团历史.xlsx
@@ -1,41 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="导出摘要" sheetId="1" r:id="rId4"/>
-    <sheet name="中文" sheetId="2" r:id="rId5"/>
-    <sheet name="繁体 - 表格 1" sheetId="3" r:id="rId6"/>
-    <sheet name="繁体 - 表格 1-1" sheetId="4" r:id="rId7"/>
-    <sheet name="英文 - 表格 1" sheetId="5" r:id="rId8"/>
-    <sheet name="英文 - 表格 1-1" sheetId="6" r:id="rId9"/>
+    <sheet name="中文" sheetId="1" r:id="rId1"/>
+    <sheet name="繁体 - 表格 1-1" sheetId="2" r:id="rId2"/>
+    <sheet name="英文 - 表格 1-1" sheetId="3" r:id="rId3"/>
+    <sheet name="用于此页面" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>此文稿由 Numbers 导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在分开的工作表中。请注意其中的公式计算可能与 Excel 不尽相同。</t>
-  </si>
-  <si>
-    <t>Numbers 工作表名称</t>
-  </si>
-  <si>
-    <t>数字表格名称</t>
-  </si>
-  <si>
-    <t>Excel 工作表名称</t>
-  </si>
-  <si>
-    <t>中文</t>
-  </si>
-  <si>
-    <t>表格 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>title</t>
   </si>
@@ -43,73 +30,294 @@
     <t>content</t>
   </si>
   <si>
-    <t>productKey</t>
-  </si>
-  <si>
-    <t>productVal</t>
-  </si>
-  <si>
-    <t>href</t>
-  </si>
-  <si>
     <t>1984</t>
   </si>
   <si>
     <t>黄国忠和袁炯辉先生在香港成立鸿昇集团。</t>
   </si>
   <si>
-    <t>繁体</t>
-  </si>
-  <si>
-    <t>繁体 - 表格 1</t>
-  </si>
-  <si>
-    <t>表格 1-1</t>
-  </si>
-  <si>
-    <t>繁体 - 表格 1-1</t>
-  </si>
-  <si>
-    <t>英文</t>
-  </si>
-  <si>
-    <t>英文 - 表格 1</t>
-  </si>
-  <si>
-    <t>英文 - 表格 1-1</t>
+    <t>黃國忠和袁炯輝先生在香港成立鴻昇集團。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Mr. K.C Wong and  K.F Yuen Founded Hung Shang Group in Hong Kong.</t>
+    </r>
+  </si>
+  <si>
+    <t>时讯电子有限公司成立并与香港鸿昇集团联营。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为日本压着端子在香港和中国大陆地区第一家授权经销商。</t>
+  </si>
+  <si>
+    <t>时讯线束及线束装配工厂在深圳成立。</t>
+  </si>
+  <si>
+    <t>获得加拿大标准协会认证。 备案号：LR99127 （线束） 以及 获得美国保险商实验室附加挂牌。 备案号：E144615（中间线材）</t>
+  </si>
+  <si>
+    <t>成立麦信实业有限公司为中国地区的客户服务。</t>
+  </si>
+  <si>
+    <t>成为莫莱克斯在大中华区授权经销商</t>
+  </si>
+  <si>
+    <t>成立苏州销售办事处</t>
+  </si>
+  <si>
+    <t>时讯工厂- 通过ISO9001认证认可</t>
+  </si>
+  <si>
+    <t>成立厦门销售办事处</t>
+  </si>
+  <si>
+    <t>时讯工厂– 通过ISO14001认证认可</t>
+  </si>
+  <si>
+    <t>成为益升华（曾称“瑞科”）在中国地区的授权经销商</t>
+  </si>
+  <si>
+    <t>成为美国艾利丹尼森公司在中国地区的授权经销商</t>
+  </si>
+  <si>
+    <t>在香港成立MacField烘焙和甜点工厂</t>
+  </si>
+  <si>
+    <t>鸿昇集团安装SAP系统</t>
+  </si>
+  <si>
+    <t>成为诺通在中国地区的授权经销商</t>
+  </si>
+  <si>
+    <t>时讯工厂成立表面组装技术部</t>
+  </si>
+  <si>
+    <t>成立湖南销售办事处</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时讯工厂 – 通过TS16949认证认可</t>
+  </si>
+  <si>
+    <t>成為日本壓著端子在香港和中國大陸地區第一家授權經銷商。</t>
+  </si>
+  <si>
+    <t>時訊線束及線束裝配工廠在深圳成立。</t>
+  </si>
+  <si>
+    <t>獲得加拿大標準協會認證。 備案號：LR99127 （線束） 以及 獲得美國保險商實驗室附加掛牌。 備案號：E144615（中間線材）</t>
+  </si>
+  <si>
+    <t>成立麥信實業有限公司為中國地區的客戶服務。</t>
+  </si>
+  <si>
+    <t>成為莫萊克斯在大中華區授權經銷商</t>
+  </si>
+  <si>
+    <t>成立蘇州銷售辦事處</t>
+  </si>
+  <si>
+    <t>時訊工廠- 通過ISO9001認證認可</t>
+  </si>
+  <si>
+    <t>成立廈門銷售辦事處</t>
+  </si>
+  <si>
+    <t>時訊工廠– 通過ISO14001認證認可</t>
+  </si>
+  <si>
+    <t>成為益升華（曾稱“瑞科”）在中國地區的授權經銷商</t>
+  </si>
+  <si>
+    <t>成為美國艾利丹尼森公司在中國地區的授權經銷商</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鴻昇集團安裝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>SAP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系統</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為諾通在中國地區的授權經銷商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時訊工廠成立表面組裝技術部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立湖南銷售辦事處</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>時訊工廠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve"> – </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通過</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>TS16949</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>認證認可</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在香港成立Mac-Field烘焙和甜點工廠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>時訊電子有限公司成立並與香港鴻昇集團聯營。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Season Electric Ltd was established and operated associated with HK Hung Shang Group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Become the first authorized JST distributor in HK &amp; China Regions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Season Harness and Cable Assembly Plant established in Shenzhen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtained CSA Certification. File No. LR99127 (Wiring Harness) And Obtained an additional UL listing. File No. E144615 (Process Wire)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mansion Technology was Founded to serve the customers in China Region</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Become the authorized Molex distributor in Great China Region</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suzhou Sales Office established</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Season Factory - ISO9001 Certification Recognized</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xiamen Sales Office established</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Season Factory – ISO14001 Certification Recognized</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Become the authorized Essentra (Formerly call “Richco) Distributor in China Region</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Become the authorized Avery Dennison Distributor in China Region</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macfield Bakery &amp; Pastry Plant Established in Hong Kong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implementation of SAP System in Hung Shang Group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Become the authorized L-com distributor in China Region</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMT Department established in Season Factory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hunan Sales Office Established
+Anhui Sales Office Established</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Season Factory – TS16949 Certification Recognized</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="12"/>
-      <color indexed="11"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
@@ -117,9 +325,30 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF585858"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF585858"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,24 +363,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -161,239 +384,270 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="16"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="16"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="16"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="015e88b1"/>
-      <rgbColor rgb="01eef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>207924</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="13009524" cy="4676774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -519,7 +773,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -528,7 +782,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -537,7 +791,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -611,7 +865,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -619,7 +873,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -638,7 +892,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -668,7 +922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -694,7 +948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -720,7 +974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -746,7 +1000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -772,7 +1026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -798,7 +1052,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -824,7 +1078,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,7 +1104,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,7 +1130,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -889,9 +1143,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -906,7 +1166,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -914,7 +1174,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -933,7 +1193,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -959,7 +1219,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -985,7 +1245,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1011,7 +1271,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,7 +1297,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1063,7 +1323,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,7 +1349,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1115,7 +1375,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1141,7 +1401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1167,7 +1427,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1180,9 +1440,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1196,7 +1462,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1215,7 +1481,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,7 +1511,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,7 +1537,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1563,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1323,7 +1589,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,7 +1615,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1375,7 +1641,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1401,7 +1667,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,7 +1693,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1453,7 +1719,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1466,308 +1732,402 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.6016" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="7" customWidth="1"/>
+    <col min="3" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+    <row r="1" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+    </row>
+    <row r="2" spans="1:2" ht="55.35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
+    <row r="3" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>1985</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>1986</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>1988</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>1991</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20">
+        <v>1994</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>1997</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>1998</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>1999</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s" s="5">
+    </row>
+    <row r="11" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>2001</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="4"/>
-      <c r="C13" t="s" s="4">
+    <row r="12" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>2004</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s" s="5">
+    </row>
+    <row r="13" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
+        <v>2006</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" t="s" s="3">
+    <row r="14" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>2007</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="4"/>
-      <c r="C15" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s" s="5">
+    </row>
+    <row r="15" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="4"/>
-      <c r="C16" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s" s="5">
+    <row r="16" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>2009</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="17" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>2010</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>2011</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
+        <v>2013</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>2014</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D10" location="'中文'!R1C1" tooltip="" display="中文"/>
-    <hyperlink ref="D12" location="'繁体 - 表格 1'!R1C1" tooltip="" display="繁体 - 表格 1"/>
-    <hyperlink ref="D13" location="'繁体 - 表格 1-1'!R1C1" tooltip="" display="繁体 - 表格 1-1"/>
-    <hyperlink ref="D15" location="'英文 - 表格 1'!R1C1" tooltip="" display="英文 - 表格 1"/>
-    <hyperlink ref="D16" location="'英文 - 表格 1-1'!R1C1" tooltip="" display="英文 - 表格 1-1"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="6" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="9" customWidth="1"/>
+    <col min="4" max="256" width="16.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" ht="198.6" customHeight="1">
-      <c r="A2" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" ht="12" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" ht="12" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" ht="12" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" ht="12" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" ht="12" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" ht="12" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" ht="12" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" ht="12" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" ht="12" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" ht="12" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" ht="12" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+    <row r="1" spans="2:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="59.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="14">
+        <v>1985</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="14">
+        <v>1986</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="14">
+        <v>1988</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="14">
+        <v>1991</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14">
+        <v>1994</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="14">
+        <v>1997</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="14">
+        <v>1998</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="14">
+        <v>1999</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="14">
+        <v>2001</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="14">
+        <v>2004</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="14">
+        <v>2006</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="14">
+        <v>2007</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="14">
+        <v>2008</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="14">
+        <v>2009</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="14">
+        <v>2010</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="14">
+        <v>2011</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="14">
+        <v>2013</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="14">
+        <v>2014</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="18"/>
+      <c r="C21" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1775,97 +2135,189 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10" style="11" customWidth="1"/>
-    <col min="4" max="4" width="10" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10" style="11" customWidth="1"/>
-    <col min="6" max="256" width="10" style="11" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+    <row r="1" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="59.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>1985</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>1986</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>1988</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>1991</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>1994</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>1997</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>1998</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>1999</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>2001</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>2004</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>2006</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>2007</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>2009</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>2010</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>2011</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>2013</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>2014</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1873,477 +2325,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="16.3516" style="21" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="21" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="21" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="21" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.55" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" ht="198.6" customHeight="1">
-      <c r="A2" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" ht="12" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" ht="12" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" ht="12" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" ht="12" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" ht="12" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" ht="12" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" ht="12" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" ht="12" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" ht="12" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" ht="12" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" ht="12" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="10" style="22" customWidth="1"/>
-    <col min="2" max="2" width="10" style="22" customWidth="1"/>
-    <col min="3" max="3" width="10" style="22" customWidth="1"/>
-    <col min="4" max="4" width="10" style="22" customWidth="1"/>
-    <col min="5" max="5" width="10" style="22" customWidth="1"/>
-    <col min="6" max="256" width="10" style="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-    </row>
-  </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="16.3516" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="23" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="23" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="23" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="23" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.55" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" ht="198.6" customHeight="1">
-      <c r="A2" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" ht="12" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" ht="12" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" ht="12" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" ht="12" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" ht="12" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" ht="12" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" ht="12" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" ht="12" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" ht="12" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" ht="12" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" ht="12" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/api/data/集团历史.xlsx
+++ b/src/api/data/集团历史.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="中文" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="英文 - 表格 1-1" sheetId="3" r:id="rId3"/>
     <sheet name="用于此页面" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -31,12 +26,6 @@
   </si>
   <si>
     <t>1984</t>
-  </si>
-  <si>
-    <t>黄国忠和袁炯辉先生在香港成立鸿昇集团。</t>
-  </si>
-  <si>
-    <t>黃國忠和袁炯輝先生在香港成立鴻昇集團。</t>
   </si>
   <si>
     <r>
@@ -80,21 +69,12 @@
     <t>时讯工厂– 通过ISO14001认证认可</t>
   </si>
   <si>
-    <t>成为益升华（曾称“瑞科”）在中国地区的授权经销商</t>
-  </si>
-  <si>
-    <t>成为美国艾利丹尼森公司在中国地区的授权经销商</t>
-  </si>
-  <si>
     <t>在香港成立MacField烘焙和甜点工厂</t>
   </si>
   <si>
     <t>鸿昇集团安装SAP系统</t>
   </si>
   <si>
-    <t>成为诺通在中国地区的授权经销商</t>
-  </si>
-  <si>
     <t>时讯工厂成立表面组装技术部</t>
   </si>
   <si>
@@ -130,12 +110,6 @@
   </si>
   <si>
     <t>時訊工廠– 通過ISO14001認證認可</t>
-  </si>
-  <si>
-    <t>成為益升華（曾稱“瑞科”）在中國地區的授權經銷商</t>
-  </si>
-  <si>
-    <t>成為美國艾利丹尼森公司在中國地區的授權經銷商</t>
   </si>
   <si>
     <r>
@@ -166,10 +140,6 @@
       </rPr>
       <t>系統</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成為諾通在中國地區的授權經銷商</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -310,12 +280,91 @@
     <t>Season Factory – TS16949 Certification Recognized</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>黄国忠和袁炯辉先生于香港成立鸿昇集团。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃國忠和袁炯輝先生于香港成立鴻昇集團。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF585858"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成为益升华（曾称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF585858"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF585858"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>瑞科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF585858"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF585858"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）大中华区授权经销商</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为美国艾利丹尼森公司大中华区授权经销商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为诺通大中华区授权经销商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為益升華（曾稱“瑞科”）大中華區授權經銷商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為美國艾利丹尼森公司大中華區授權經銷商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成為諾通大中華區授權經銷商</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -626,7 +675,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1750,24 +1799,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="131.28515625" style="7" customWidth="1"/>
     <col min="3" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="14.65" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1775,159 +1824,159 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="55.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="21.75" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21.75" customHeight="1">
       <c r="A3" s="20">
         <v>1985</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21.75" customHeight="1">
       <c r="A4" s="20">
         <v>1986</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21.75" customHeight="1">
       <c r="A5" s="20">
         <v>1988</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="137.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21.75" customHeight="1">
       <c r="A6" s="20">
         <v>1991</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21.75" customHeight="1">
       <c r="A7" s="20">
         <v>1994</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21.75" customHeight="1">
       <c r="A8" s="20">
         <v>1997</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21.75" customHeight="1">
       <c r="A9" s="20">
         <v>1998</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21.75" customHeight="1">
       <c r="A10" s="20">
         <v>1999</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21.75" customHeight="1">
       <c r="A11" s="20">
         <v>2001</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="21.75" customHeight="1">
       <c r="A12" s="20">
         <v>2004</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="21.75" customHeight="1">
       <c r="A13" s="20">
         <v>2006</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="21.75" customHeight="1">
       <c r="A14" s="20">
         <v>2007</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="21.75" customHeight="1">
       <c r="A15" s="20">
         <v>2008</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="21.75" customHeight="1">
       <c r="A16" s="20">
         <v>2009</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="21.75" customHeight="1">
       <c r="A17" s="20">
         <v>2010</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="21.75" customHeight="1">
       <c r="A18" s="20">
         <v>2011</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="21.75" customHeight="1">
       <c r="A19" s="20">
         <v>2013</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="21.75" customHeight="1">
       <c r="A20" s="20">
         <v>2014</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="21.75" customHeight="1">
       <c r="A21" s="20"/>
       <c r="B21" s="16"/>
     </row>
@@ -1942,25 +1991,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="33.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="95.5703125" style="9" customWidth="1"/>
     <col min="4" max="256" width="16.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3" ht="33.75" customHeight="1">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1968,159 +2017,159 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="59.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" ht="33.75" customHeight="1">
       <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="33.75" customHeight="1">
       <c r="B3" s="14">
         <v>1985</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="33.75" customHeight="1">
       <c r="B4" s="14">
         <v>1986</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="33.75" customHeight="1">
       <c r="B5" s="14">
         <v>1988</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="138.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="33.75" customHeight="1">
       <c r="B6" s="14">
         <v>1991</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="33.75" customHeight="1">
       <c r="B7" s="14">
         <v>1994</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="33.75" customHeight="1">
       <c r="B8" s="14">
         <v>1997</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="33.75" customHeight="1">
       <c r="B9" s="14">
         <v>1998</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="33.75" customHeight="1">
       <c r="B10" s="14">
         <v>1999</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="33.75" customHeight="1">
       <c r="B11" s="14">
         <v>2001</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="33.75" customHeight="1">
       <c r="B12" s="14">
         <v>2004</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="33.75" customHeight="1">
       <c r="B13" s="14">
         <v>2006</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="33.75" customHeight="1">
       <c r="B14" s="14">
         <v>2007</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="33.75" customHeight="1">
       <c r="B15" s="14">
         <v>2008</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="33.75" customHeight="1">
       <c r="B16" s="14">
         <v>2009</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="33.75" customHeight="1">
       <c r="B17" s="14">
         <v>2010</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="33.75" customHeight="1">
       <c r="B18" s="14">
         <v>2011</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="33.75" customHeight="1">
       <c r="B19" s="14">
         <v>2013</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="33.75" customHeight="1">
       <c r="B20" s="14">
         <v>2014</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="33.75" customHeight="1">
       <c r="B21" s="18"/>
       <c r="C21" s="16"/>
     </row>
@@ -2135,7 +2184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2145,12 +2194,12 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1"/>
   <cols>
     <col min="1" max="256" width="16.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="14.65" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2158,159 +2207,159 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="59.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="59.45" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="65.25" customHeight="1">
       <c r="A3" s="14">
         <v>1985</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="65.25" customHeight="1">
       <c r="A4" s="14">
         <v>1986</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="65.25" customHeight="1">
       <c r="A5" s="14">
         <v>1988</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="105" customHeight="1">
       <c r="A6" s="14">
         <v>1991</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="65.25" customHeight="1">
       <c r="A7" s="14">
         <v>1994</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="65.25" customHeight="1">
       <c r="A8" s="14">
         <v>1997</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="65.25" customHeight="1">
       <c r="A9" s="14">
         <v>1998</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="65.25" customHeight="1">
       <c r="A10" s="14">
         <v>1999</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="65.25" customHeight="1">
       <c r="A11" s="14">
         <v>2001</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="65.25" customHeight="1">
       <c r="A12" s="14">
         <v>2004</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="65.25" customHeight="1">
       <c r="A13" s="14">
         <v>2006</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="65.25" customHeight="1">
       <c r="A14" s="14">
         <v>2007</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="65.25" customHeight="1">
       <c r="A15" s="14">
         <v>2008</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="65.25" customHeight="1">
       <c r="A16" s="14">
         <v>2009</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="65.25" customHeight="1">
       <c r="A17" s="14">
         <v>2010</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="65.25" customHeight="1">
       <c r="A18" s="14">
         <v>2011</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="65.25" customHeight="1">
       <c r="A19" s="14">
         <v>2013</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="65.25" customHeight="1">
       <c r="A20" s="14">
         <v>2014</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="12" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
     </row>
@@ -2325,12 +2374,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/api/data/集团历史.xlsx
+++ b/src/api/data/集团历史.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\hongsheng\src\api\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60630888-AD2A-4A65-AFCF-DCDD9F4C49F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="50" windowWidth="15960" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="中文" sheetId="1" r:id="rId1"/>
@@ -110,37 +116,6 @@
   </si>
   <si>
     <t>時訊工廠– 通過ISO14001認證認可</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>鴻昇集團安裝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>SAP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系統</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>時訊工廠成立表面組裝技術部</t>
@@ -204,10 +179,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>時訊電子有限公司成立並與香港鴻昇集團聯營。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Season Electric Ltd was established and operated associated with HK Hung Shang Group</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -282,10 +253,6 @@
   </si>
   <si>
     <t>黄国忠和袁炯辉先生于香港成立鸿昇集团。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃國忠和袁炯輝先生于香港成立鴻昇集團。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -359,12 +326,21 @@
     <t>成為諾通大中華區授權經銷商</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>黃國忠和袁炯輝先生于香港成立鸿昇集團。</t>
+  </si>
+  <si>
+    <t>時訊電子有限公司成立並與香港鸿昇集團聯營。</t>
+  </si>
+  <si>
+    <t>鸿昇集團安裝SAP系統</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -669,7 +645,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1799,7 +1781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1809,14 +1791,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="131.28515625" style="7" customWidth="1"/>
-    <col min="3" max="256" width="16.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="131.26953125" style="7" customWidth="1"/>
+    <col min="3" max="256" width="16.26953125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.65" customHeight="1">
+    <row r="1" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1824,15 +1806,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="21.75" customHeight="1">
+    <row r="2" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="21.75" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>1985</v>
       </c>
@@ -1840,7 +1822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="21.75" customHeight="1">
+    <row r="4" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>1986</v>
       </c>
@@ -1848,7 +1830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="21.75" customHeight="1">
+    <row r="5" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>1988</v>
       </c>
@@ -1856,7 +1838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="21.75" customHeight="1">
+    <row r="6" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>1991</v>
       </c>
@@ -1864,7 +1846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="21.75" customHeight="1">
+    <row r="7" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>1994</v>
       </c>
@@ -1872,7 +1854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="21.75" customHeight="1">
+    <row r="8" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>1997</v>
       </c>
@@ -1880,7 +1862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="21.75" customHeight="1">
+    <row r="9" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>1998</v>
       </c>
@@ -1888,7 +1870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="21.75" customHeight="1">
+    <row r="10" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>1999</v>
       </c>
@@ -1896,7 +1878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="21.75" customHeight="1">
+    <row r="11" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>2001</v>
       </c>
@@ -1904,7 +1886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="21.75" customHeight="1">
+    <row r="12" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>2004</v>
       </c>
@@ -1912,23 +1894,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="21.75" customHeight="1">
+    <row r="13" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>2006</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="21.75" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>2007</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="21.75" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>2008</v>
       </c>
@@ -1936,7 +1918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="21.75" customHeight="1">
+    <row r="16" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>2009</v>
       </c>
@@ -1944,15 +1926,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="21.75" customHeight="1">
+    <row r="17" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>2010</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="21.75" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>2011</v>
       </c>
@@ -1960,7 +1942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="21.75" customHeight="1">
+    <row r="19" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>2013</v>
       </c>
@@ -1968,7 +1950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="21.75" customHeight="1">
+    <row r="20" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>2014</v>
       </c>
@@ -1976,7 +1958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="21.75" customHeight="1">
+    <row r="21" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="16"/>
     </row>
@@ -1991,25 +1973,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="33.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="95.5703125" style="9" customWidth="1"/>
-    <col min="4" max="256" width="16.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="1.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="95.54296875" style="9" customWidth="1"/>
+    <col min="4" max="256" width="16.26953125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="33.75" customHeight="1">
+    <row r="1" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2017,23 +1999,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="33.75" customHeight="1">
+    <row r="2" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" ht="33.75" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
         <v>1985</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="33.75" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14">
         <v>1986</v>
       </c>
@@ -2041,7 +2023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="33.75" customHeight="1">
+    <row r="5" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <v>1988</v>
       </c>
@@ -2049,7 +2031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="33.75" customHeight="1">
+    <row r="6" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14">
         <v>1991</v>
       </c>
@@ -2057,7 +2039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="33.75" customHeight="1">
+    <row r="7" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <v>1994</v>
       </c>
@@ -2065,7 +2047,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="33.75" customHeight="1">
+    <row r="8" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <v>1997</v>
       </c>
@@ -2073,7 +2055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="33.75" customHeight="1">
+    <row r="9" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <v>1998</v>
       </c>
@@ -2081,7 +2063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="33.75" customHeight="1">
+    <row r="10" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <v>1999</v>
       </c>
@@ -2089,7 +2071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="33.75" customHeight="1">
+    <row r="11" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>2001</v>
       </c>
@@ -2097,7 +2079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="33.75" customHeight="1">
+    <row r="12" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <v>2004</v>
       </c>
@@ -2105,71 +2087,71 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="33.75" customHeight="1">
+    <row r="13" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>2006</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="33.75" customHeight="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>2007</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="33.75" customHeight="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>2008</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="33.75" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <v>2009</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="33.75" customHeight="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>2010</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="33.75" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>2011</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="33.75" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>2013</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="33.75" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <v>2014</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="33.75" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="16"/>
     </row>
@@ -2184,22 +2166,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.26953125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="256" width="16.28515625" style="7" customWidth="1"/>
+    <col min="1" max="256" width="16.26953125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.65" customHeight="1">
+    <row r="1" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2207,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="59.45" customHeight="1">
+    <row r="2" spans="1:2" ht="59.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2215,151 +2197,151 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="65.25" customHeight="1">
+    <row r="3" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1985</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="65.25" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>1986</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="65.25" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>1988</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="105" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>1991</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="65.25" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>1994</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="65.25" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>1997</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="65.25" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>1998</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="65.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>1999</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="65.25" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2001</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="65.25" customHeight="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2004</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="65.25" customHeight="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2006</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="65.25" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2007</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="65.25" customHeight="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2008</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="65.25" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2009</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="65.25" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>2010</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="65.25" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>2011</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="65.25" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2013</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="65.25" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>2014</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="12" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
     </row>
@@ -2374,12 +2356,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
